--- a/WebApp/wwwroot/template/TemplateImportProject.xlsx
+++ b/WebApp/wwwroot/template/TemplateImportProject.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOME\CreditRequestSystem\WebApp\wwwroot\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\OnGIT\CreditRequestSystem\WebApp\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Tên dự án</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Căn cứ pháp lý</t>
   </si>
@@ -44,13 +41,19 @@
   </si>
   <si>
     <t xml:space="preserve">Ghi chú </t>
+  </si>
+  <si>
+    <t>THÔNG TIN IMPORT Nguồn Thu</t>
+  </si>
+  <si>
+    <t>Tên nguồn thu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +74,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -81,7 +91,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,19 +123,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,40 +417,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/WebApp/wwwroot/template/TemplateImportProject.xlsx
+++ b/WebApp/wwwroot/template/TemplateImportProject.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\OnGIT\CreditRequestSystem\WebApp\wwwroot\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OnGit\CreditRequestSystem\WebApp\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51625814-0E43-4521-A25B-3352CD88DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Căn cứ pháp lý</t>
   </si>
@@ -43,17 +44,41 @@
     <t xml:space="preserve">Ghi chú </t>
   </si>
   <si>
-    <t>THÔNG TIN IMPORT Nguồn Thu</t>
-  </si>
-  <si>
     <t>Tên nguồn thu</t>
+  </si>
+  <si>
+    <t>Mã Nguồn Thu</t>
+  </si>
+  <si>
+    <t>DA0001</t>
+  </si>
+  <si>
+    <t>DA0002</t>
+  </si>
+  <si>
+    <t>điều luậ 20</t>
+  </si>
+  <si>
+    <t>điều luậ 21</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>Test dự án 1</t>
+  </si>
+  <si>
+    <t>test dự án 2</t>
+  </si>
+  <si>
+    <t>THÔNG TIN IMPORT NGUỒN THU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +105,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,6 +170,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,47 +452,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
